--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -680,10 +692,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -727,28 +739,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -773,28 +785,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1172,10 +1184,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1219,28 +1231,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1265,28 +1277,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1548,10 +1560,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1595,28 +1607,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1641,28 +1653,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1924,10 +1936,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1971,28 +1983,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2017,28 +2029,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2358,10 +2370,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2405,28 +2417,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2451,28 +2463,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2676,10 +2688,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2723,28 +2735,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2769,28 +2781,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3255,10 +3267,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3302,28 +3314,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3348,28 +3360,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3660,10 +3672,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3707,28 +3719,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3753,28 +3765,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3949,10 +3961,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="J132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3996,28 +4008,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4042,28 +4054,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4325,10 +4337,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4372,28 +4384,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4418,28 +4430,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4585,10 +4597,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4632,28 +4644,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4678,28 +4690,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4787,10 +4799,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
